--- a/May-2018-speedtests.xlsx
+++ b/May-2018-speedtests.xlsx
@@ -1,35 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LQD" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="JTL" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="SAF" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Afternoon</t>
+  </si>
+  <si>
+    <t>JTL LINK SPEEDTEST</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCC00"/>
+        <bgColor rgb="00FFCC00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -42,16 +75,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -339,13 +375,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="R2:U2"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/May-2018-speedtests.xlsx
+++ b/May-2018-speedtests.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Morning</t>
   </si>
@@ -25,7 +25,43 @@
     <t>Afternoon</t>
   </si>
   <si>
+    <t>LQD LINK SPEEDTEST</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>EUROPE</t>
+  </si>
+  <si>
+    <t>NAIROBI</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Download</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>By</t>
+  </si>
+  <si>
     <t>JTL LINK SPEEDTEST</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>SAF LINK SPEEDTEST</t>
   </si>
 </sst>
 </file>
@@ -33,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -50,6 +86,10 @@
       <b val="1"/>
       <sz val="14"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -65,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -73,14 +113,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -380,14 +440,137 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -398,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:R2"/>
+  <dimension ref="B1:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,7 +589,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,18 +597,125 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:25">
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="O32" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="R2:U2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -437,14 +727,137 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/May-2018-speedtests.xlsx
+++ b/May-2018-speedtests.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Morning</t>
   </si>
@@ -61,7 +61,46 @@
     <t>05/27/2018</t>
   </si>
   <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
     <t>SAF LINK SPEEDTEST</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>1.99</t>
+  </si>
+  <si>
+    <t>1.77</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>2.25</t>
   </si>
 </sst>
 </file>
@@ -131,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -143,6 +182,7 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -700,8 +740,32 @@
       </c>
     </row>
     <row r="32" spans="1:25">
-      <c r="O32" t="s">
+      <c r="B32" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:Y4"/>
+  <dimension ref="B1:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,10 +809,10 @@
     </row>
     <row r="2" spans="1:25">
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -843,6 +907,35 @@
       </c>
       <c r="Y4" s="4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="B32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/May-2018-speedtests.xlsx
+++ b/May-2018-speedtests.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Morning</t>
   </si>
@@ -55,52 +55,85 @@
     <t>By</t>
   </si>
   <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>4.44</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>4.83</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>4.18</t>
+  </si>
+  <si>
     <t>JTL LINK SPEEDTEST</t>
   </si>
   <si>
-    <t>05/27/2018</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.04</t>
-  </si>
-  <si>
-    <t>1.68</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>2.01</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>2.23</t>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>5.13</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>5.52</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>5.24</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>6.18</t>
   </si>
   <si>
     <t>SAF LINK SPEEDTEST</t>
   </si>
   <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>1.99</t>
-  </si>
-  <si>
-    <t>1.77</t>
-  </si>
-  <si>
-    <t>1.91</t>
-  </si>
-  <si>
-    <t>2.25</t>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>4.52</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>4.84</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>4.63</t>
   </si>
 </sst>
 </file>
@@ -480,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:Y4"/>
+  <dimension ref="B1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,6 +629,35 @@
       </c>
       <c r="Y4" s="4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -621,7 +683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:Y32"/>
+  <dimension ref="B1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,10 +701,10 @@
     </row>
     <row r="2" spans="1:25">
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -739,33 +801,33 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
-      <c r="B32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>20</v>
+    <row r="33" spans="1:25">
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:Y32"/>
+  <dimension ref="B1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -809,10 +871,10 @@
     </row>
     <row r="2" spans="1:25">
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -909,33 +971,33 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
-      <c r="B32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>27</v>
+    <row r="33" spans="1:25">
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
